--- a/biology/Botanique/Callitris_roei/Callitris_roei.xlsx
+++ b/biology/Botanique/Callitris_roei/Callitris_roei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callitris roei est une espèce de conifères de la famille des Cupressaceae. Il est endémique au sud-ouest de l'Australie-Occidentale depuis le sud de Moora et Albany jusqu'au parc national de Cape arides.
 C'est un arbuste à feuilles persistantes ou un petit arbre de 5 m de hauteur. Les feuilles sont disposées en verticilles de trois pièces. Elles se présentent sous forme d'écailles, de 2 à 5 mm de long et de 1 à 1,5 mm de large, les feuilles sur les jeunes plants sont plus longues et en forme d'aiguille. Les cônes femelles sont globuleux, de 1 à 2 cm de diamètre, avec six écailles en deux verticilles de trois et arrivent à maturité 18 mois après la pollinisation. Les cônes mâles sont cylindriques, de 3 à 6 mm de long et 1,2 à 2 mm de large.
